--- a/logs/2c/2cEDresult.xlsx
+++ b/logs/2c/2cEDresult.xlsx
@@ -447,58 +447,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006080548341893528</v>
+        <v>0.003863092951775041</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03678156270869494</v>
+        <v>-0.03219275312800293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0438581319546301</v>
+        <v>0.06728693851364928</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02146101080511116</v>
+        <v>0.07015337425915152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.02164834112594516</v>
+        <v>0.0009801596384573432</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05668594517307125</v>
+        <v>-0.03002888080940301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2271454834802923</v>
+        <v>0.1691303632187597</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236261377121905</v>
+        <v>0.1747496709315947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.04941049777115127</v>
+        <v>-0.0636064919738203</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1236615756539093</v>
+        <v>-0.03191399942666489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.545539020024198</v>
+        <v>0.5014689555692808</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4998264784483872</v>
+        <v>0.4913937796165608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.177376816198986</v>
+        <v>0.2572704901080778</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2056695709159015</v>
+        <v>0.263703175192693</v>
       </c>
     </row>
   </sheetData>
